--- a/src/main/resources/com/relative/brecreditosnuevos/matrices/Precios.xlsx
+++ b/src/main/resources/com/relative/brecreditosnuevos/matrices/Precios.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\extre\Documents\proyectos\proyectos drools\quski-bre\Matrices\Produccion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\extre\Documents\proyectos\proyectos drools\QuskiBre\Matrices\Matrices v2\Produccion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42590957-388B-4C1D-A343-84BC2D80AD82}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3EFD600-2D8B-466C-BA91-283AE87D4CAF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14388" windowHeight="11916" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -99,10 +99,10 @@
     <t>18KN</t>
   </si>
   <si>
-    <t>garantia.setPrecioOro(Double.valueOf($param));</t>
-  </si>
-  <si>
     <t>garantia.getTipoOroKilataje() == "$param"</t>
+  </si>
+  <si>
+    <t>garantia.setValorAvaluo(Double.valueOf($param));</t>
   </si>
 </sst>
 </file>
@@ -242,13 +242,13 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -577,7 +577,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -642,10 +642,10 @@
       <c r="A7" s="7"/>
       <c r="B7" s="8"/>
       <c r="C7" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>25</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -715,7 +715,7 @@
         <v>9</v>
       </c>
       <c r="D12" s="13">
-        <v>18</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="13" spans="1:4" s="14" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -729,7 +729,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="13">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:4" s="14" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -757,7 +757,7 @@
         <v>23</v>
       </c>
       <c r="D15" s="13">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:4" s="14" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">

--- a/src/main/resources/com/relative/brecreditosnuevos/matrices/Precios.xlsx
+++ b/src/main/resources/com/relative/brecreditosnuevos/matrices/Precios.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\extre\Documents\proyectos\proyectos drools\QuskiBre\Matrices\Matrices v2\Produccion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r06xd\Documents\Rogger\Relative\Bre Actual\QuskiBre\Matrices\Matrices v2\Produccion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3EFD600-2D8B-466C-BA91-283AE87D4CAF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B2282FA-79E1-4EC6-8593-78722D2E338B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1500" yWindow="1500" windowWidth="13560" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -576,8 +576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/src/main/resources/com/relative/brecreditosnuevos/matrices/Precios.xlsx
+++ b/src/main/resources/com/relative/brecreditosnuevos/matrices/Precios.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r06xd\Documents\Rogger\Relative\Bre Actual\QuskiBre\Matrices\Matrices v2\Produccion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\PROYECTOS\QUSKI\BRE\MATRICES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B2282FA-79E1-4EC6-8593-78722D2E338B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A96C531C-96BF-46BF-A39C-8F59D5E5FE46}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="1500" windowWidth="13560" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -576,17 +576,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D18"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="30.77734375" customWidth="1"/>
-    <col min="4" max="4" width="35.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="35.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="7"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -594,13 +594,13 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="1" t="s">
         <v>1</v>
@@ -610,7 +610,7 @@
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="1" t="s">
         <v>17</v>
@@ -618,7 +618,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="8" t="s">
         <v>4</v>
@@ -630,7 +630,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="8"/>
       <c r="C6" s="2" t="s">
@@ -638,7 +638,7 @@
       </c>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="8"/>
       <c r="C7" s="9" t="s">
@@ -648,7 +648,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>19</v>
       </c>
@@ -662,7 +662,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="14" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>16</v>
       </c>
@@ -676,7 +676,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="14" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>16</v>
       </c>
@@ -690,7 +690,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="14" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>16</v>
       </c>
@@ -704,7 +704,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="14" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>16</v>
       </c>
@@ -715,10 +715,10 @@
         <v>9</v>
       </c>
       <c r="D12" s="13">
-        <v>18.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" s="14" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>16</v>
       </c>
@@ -729,10 +729,10 @@
         <v>10</v>
       </c>
       <c r="D13" s="13">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" s="14" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>16</v>
       </c>
@@ -746,7 +746,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="14" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>16</v>
       </c>
@@ -757,10 +757,10 @@
         <v>23</v>
       </c>
       <c r="D15" s="13">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" s="14" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>16</v>
       </c>
@@ -774,7 +774,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="14" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>16</v>
       </c>
@@ -788,7 +788,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="14" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>16</v>
       </c>
@@ -802,7 +802,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
